--- a/form-files/tables/section_test/forms/section_test/section_test.xlsx
+++ b/form-files/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14820" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,12 @@
     <sheet name="choices" sheetId="2" r:id="rId4"/>
     <sheet name="settings" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -179,9 +184,6 @@
     <t>exit section</t>
   </si>
   <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
     <t>Entered Section 1</t>
   </si>
   <si>
@@ -267,6 +269,9 @@
   </si>
   <si>
     <t>20 साल की उम्र से अधिक होना चाहिए</t>
+  </si>
+  <si>
+    <t>contents</t>
   </si>
 </sst>
 </file>
@@ -650,19 +655,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="15" width="18.36328125" customWidth="1"/>
-    <col min="16" max="16" width="24.08984375" customWidth="1"/>
-    <col min="17" max="18" width="18.36328125" customWidth="1"/>
+    <col min="1" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" customWidth="1"/>
+    <col min="17" max="18" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,13 +723,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.5" customHeight="1">
       <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="E3" t="s">
         <v>39</v>
       </c>
@@ -735,20 +740,20 @@
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="C4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18">
       <c r="E6" t="s">
         <v>47</v>
       </c>
@@ -756,15 +761,15 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="E8" t="s">
         <v>47</v>
       </c>
@@ -772,20 +777,20 @@
         <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="C9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18">
       <c r="E11" t="s">
         <v>47</v>
       </c>
@@ -793,15 +798,15 @@
         <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="C12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>47</v>
       </c>
@@ -809,47 +814,52 @@
         <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18">
       <c r="E16" t="s">
         <v>47</v>
       </c>
       <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
         <v>75</v>
       </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:3">
       <c r="C17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="C19" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -861,20 +871,20 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="13.6328125" customWidth="1"/>
+    <col min="1" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="14" width="13.6328125" customWidth="1"/>
-    <col min="15" max="15" width="30.08984375" customWidth="1"/>
-    <col min="16" max="16" width="33.6328125" customWidth="1"/>
-    <col min="17" max="18" width="13.6328125" customWidth="1"/>
+    <col min="12" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.1640625" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" customWidth="1"/>
+    <col min="17" max="18" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,45 +940,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="E2" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
         <v>77</v>
       </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -980,17 +995,17 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" customWidth="1"/>
-    <col min="9" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="16" width="34.6328125" customWidth="1"/>
-    <col min="17" max="18" width="15.36328125" customWidth="1"/>
+    <col min="1" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="15" max="16" width="34.6640625" customWidth="1"/>
+    <col min="17" max="18" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,45 +1061,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="E2" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18">
       <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
         <v>79</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1092,16 +1112,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1126,10 +1146,10 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1140,10 +1160,10 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1151,14 +1171,19 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1170,15 +1195,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="7" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="7" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1235,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1222,7 +1247,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1261,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1250,7 +1275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1266,5 +1291,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/form-files/tables/section_test/forms/section_test/section_test.xlsx
+++ b/form-files/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14820" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14820" windowHeight="8020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>comments</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>20 साल की उम्र से अधिक होना चाहिए</t>
-  </si>
-  <si>
-    <t>contents</t>
   </si>
 </sst>
 </file>
@@ -653,21 +650,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="24.1640625" customWidth="1"/>
-    <col min="17" max="18" width="18.33203125" customWidth="1"/>
+    <col min="1" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="15" width="18.36328125" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" customWidth="1"/>
+    <col min="17" max="18" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,13 +720,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.5" customHeight="1">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>39</v>
       </c>
@@ -743,17 +740,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>47</v>
       </c>
@@ -764,12 +761,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>47</v>
       </c>
@@ -780,17 +777,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>47</v>
       </c>
@@ -801,12 +798,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>47</v>
       </c>
@@ -817,17 +814,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>47</v>
       </c>
@@ -838,19 +835,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -871,20 +858,20 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="7" width="13.6328125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.1640625" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" customWidth="1"/>
-    <col min="17" max="18" width="13.6640625" customWidth="1"/>
+    <col min="12" max="14" width="13.6328125" customWidth="1"/>
+    <col min="15" max="15" width="30.1796875" customWidth="1"/>
+    <col min="16" max="16" width="33.6328125" customWidth="1"/>
+    <col min="17" max="18" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>47</v>
       </c>
@@ -951,7 +938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>66</v>
       </c>
@@ -995,17 +982,17 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" customWidth="1"/>
-    <col min="15" max="16" width="34.6640625" customWidth="1"/>
-    <col min="17" max="18" width="15.33203125" customWidth="1"/>
+    <col min="1" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" customWidth="1"/>
+    <col min="9" max="13" width="15.36328125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="15" max="16" width="34.6328125" customWidth="1"/>
+    <col min="17" max="18" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>47</v>
       </c>
@@ -1072,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>56</v>
       </c>
@@ -1116,12 +1103,12 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1149,7 +1136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1163,7 +1150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1191,19 +1178,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="7" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1223,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1235,7 +1222,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1234,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1261,7 +1248,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>

--- a/form-files/tables/section_test/forms/section_test/section_test.xlsx
+++ b/form-files/tables/section_test/forms/section_test/section_test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t>comments</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t>20 साल की उम्र से अधिक होना चाहिए</t>
+  </si>
+  <si>
+    <t>section1</t>
+  </si>
+  <si>
+    <t>section2</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>धारा 1</t>
+  </si>
+  <si>
+    <t>धारा 2</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1250,29 +1268,57 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
+      <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
     </row>

--- a/form-files/tables/section_test/forms/section_test/section_test.xlsx
+++ b/form-files/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14820" windowHeight="8020" activeTab="4"/>
+    <workbookView xWindow="3060" yWindow="4780" windowWidth="46900" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>comments</t>
   </si>
@@ -287,13 +287,16 @@
   </si>
   <si>
     <t>धारा 2</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +315,22 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -336,9 +355,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -367,8 +388,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,21 +691,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="15" width="18.36328125" customWidth="1"/>
-    <col min="16" max="16" width="24.1796875" customWidth="1"/>
-    <col min="17" max="18" width="18.36328125" customWidth="1"/>
+    <col min="1" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" customWidth="1"/>
+    <col min="17" max="18" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,14 +761,17 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="17.5" customHeight="1">
       <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="E3" t="s">
         <v>39</v>
       </c>
@@ -758,17 +785,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19">
       <c r="C4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19">
       <c r="E6" t="s">
         <v>47</v>
       </c>
@@ -778,13 +805,16 @@
       <c r="I6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19">
       <c r="E8" t="s">
         <v>47</v>
       </c>
@@ -794,18 +824,21 @@
       <c r="I8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="C9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="E11" t="s">
         <v>47</v>
       </c>
@@ -815,13 +848,16 @@
       <c r="I11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="C12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19">
       <c r="E13" t="s">
         <v>47</v>
       </c>
@@ -831,18 +867,21 @@
       <c r="I13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19">
       <c r="E16" t="s">
         <v>47</v>
       </c>
@@ -852,14 +891,18 @@
       <c r="I16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -870,26 +913,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="13.6328125" customWidth="1"/>
+    <col min="1" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="14" width="13.6328125" customWidth="1"/>
-    <col min="15" max="15" width="30.1796875" customWidth="1"/>
-    <col min="16" max="16" width="33.6328125" customWidth="1"/>
-    <col min="17" max="18" width="13.6328125" customWidth="1"/>
+    <col min="12" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.1640625" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" customWidth="1"/>
+    <col min="17" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,8 +988,11 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="E2" t="s">
         <v>47</v>
       </c>
@@ -955,8 +1002,11 @@
       <c r="I2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="E3" t="s">
         <v>66</v>
       </c>
@@ -994,23 +1044,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" customWidth="1"/>
-    <col min="9" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="16" width="34.6328125" customWidth="1"/>
-    <col min="17" max="18" width="15.36328125" customWidth="1"/>
+    <col min="1" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="15" max="16" width="34.6640625" customWidth="1"/>
+    <col min="17" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,8 +1116,11 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="E2" t="s">
         <v>47</v>
       </c>
@@ -1076,8 +1130,11 @@
       <c r="I2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="E3" t="s">
         <v>56</v>
       </c>
@@ -1117,16 +1174,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1154,7 +1211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1168,7 +1225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1196,19 +1253,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="7" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="7" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1228,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1240,7 +1297,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1252,7 +1309,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1323,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
@@ -1280,7 +1337,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>83</v>
       </c>
@@ -1294,7 +1351,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>

--- a/form-files/tables/section_test/forms/section_test/section_test.xlsx
+++ b/form-files/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22202"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="4780" windowWidth="46900" windowHeight="13500"/>
+    <workbookView xWindow="3060" yWindow="4780" windowWidth="25820" windowHeight="13500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>comments</t>
   </si>
@@ -691,22 +691,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="24.1640625" customWidth="1"/>
-    <col min="17" max="18" width="18.33203125" customWidth="1"/>
-    <col min="19" max="19" width="15.1640625" customWidth="1"/>
+    <col min="1" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="15" width="18.36328125" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" customWidth="1"/>
+    <col min="17" max="17" width="18.36328125" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,19 +759,16 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" ht="17.5" customHeight="1">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>39</v>
       </c>
@@ -785,17 +782,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>47</v>
       </c>
@@ -805,16 +802,16 @@
       <c r="I6" t="s">
         <v>70</v>
       </c>
-      <c r="S6" t="b">
+      <c r="R6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>47</v>
       </c>
@@ -824,21 +821,21 @@
       <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="S8" t="b">
+      <c r="R8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>47</v>
       </c>
@@ -848,16 +845,16 @@
       <c r="I11" t="s">
         <v>72</v>
       </c>
-      <c r="S11" t="b">
+      <c r="R11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>47</v>
       </c>
@@ -867,21 +864,21 @@
       <c r="I13" t="s">
         <v>73</v>
       </c>
-      <c r="S13" t="b">
+      <c r="R13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>47</v>
       </c>
@@ -891,11 +888,11 @@
       <c r="I16" t="s">
         <v>75</v>
       </c>
-      <c r="S16" t="b">
+      <c r="R16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>52</v>
       </c>
@@ -913,27 +910,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="7" width="13.6328125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.1640625" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" customWidth="1"/>
-    <col min="17" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="12" max="14" width="13.6328125" customWidth="1"/>
+    <col min="15" max="15" width="30.1796875" customWidth="1"/>
+    <col min="16" max="16" width="33.6328125" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" customWidth="1"/>
+    <col min="18" max="18" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,13 +983,10 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>47</v>
       </c>
@@ -1002,11 +996,11 @@
       <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="S2" t="b">
+      <c r="R2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>66</v>
       </c>
@@ -1044,24 +1038,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" customWidth="1"/>
-    <col min="15" max="16" width="34.6640625" customWidth="1"/>
-    <col min="17" max="18" width="15.33203125" customWidth="1"/>
-    <col min="19" max="19" width="14.5" customWidth="1"/>
+    <col min="1" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" customWidth="1"/>
+    <col min="9" max="13" width="15.36328125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="15" max="16" width="34.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,13 +1108,10 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>47</v>
       </c>
@@ -1130,11 +1121,11 @@
       <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="S2" t="b">
+      <c r="R2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>56</v>
       </c>
@@ -1178,12 +1169,12 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1211,7 +1202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1253,19 +1244,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="7" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1288,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1300,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1323,7 +1314,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
@@ -1337,7 +1328,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>83</v>
       </c>
@@ -1351,7 +1342,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
